--- a/XLSX/New/SalahTimmings.xlsx
+++ b/XLSX/New/SalahTimmings.xlsx
@@ -5,21 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="January" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="February" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="March" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="April" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="May" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="June" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="July" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="August" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="September" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="October" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="November" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="December" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="January" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="February" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="March" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="April" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="May" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="June" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="July" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="August" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="September" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="October" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="November" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="December" sheetId="12" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +36,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
@@ -68,6 +68,12 @@
       <sz val="13"/>
       <name val="Poppins"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -113,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,27 +136,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,6 +178,112 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,721 +1041,721 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+    <row r="1" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>0.214583333333333</v>
       </c>
-      <c r="C1" s="9" t="n">
+      <c r="C1" s="11" t="n">
         <v>0.265972222222222</v>
       </c>
-      <c r="D1" s="9" t="n">
+      <c r="D1" s="11" t="n">
         <v>0.515277777777778</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1" s="11" t="n">
         <v>0.694444444444444</v>
       </c>
-      <c r="F1" s="9" t="n">
+      <c r="F1" s="11" t="n">
         <v>0.763888888888889</v>
       </c>
-      <c r="G1" s="9" t="n">
+      <c r="G1" s="11" t="n">
         <v>0.816666666666667</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="11" t="n">
         <v>0.214583333333333</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>0.265972222222222</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.515277777777778</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>0.69375</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="11" t="n">
         <v>0.763194444444444</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>0.815972222222222</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="11" t="n">
         <v>0.214583333333333</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.514583333333333</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>0.693055555555556</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>0.7625</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>0.814583333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.215277777777778</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>0.514583333333333</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>0.692361111111111</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>0.761805555555556</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>0.813888888888889</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.215277777777778</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>0.267361111111111</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="11" t="n">
         <v>0.514583333333333</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="11" t="n">
         <v>0.691666666666667</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>0.761111111111111</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="11" t="n">
         <v>0.813194444444444</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.215972222222222</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="11" t="n">
         <v>0.267361111111111</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.514583333333333</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.691666666666667</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>0.760416666666667</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="11" t="n">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.215972222222222</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="11" t="n">
         <v>0.267361111111111</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.690972222222222</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>0.759722222222222</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="11" t="n">
         <v>0.811805555555556</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="11" t="n">
         <v>0.215972222222222</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="11" t="n">
         <v>0.268055555555556</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="11" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="11" t="n">
         <v>0.690277777777778</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="11" t="n">
         <v>0.759027777777778</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="11" t="n">
         <v>0.811111111111111</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>0.216666666666667</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="11" t="n">
         <v>0.268055555555556</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="11" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>0.689583333333333</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="11" t="n">
         <v>0.758333333333333</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="11" t="n">
         <v>0.810416666666667</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>0.216666666666667</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>0.26875</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11" t="n">
         <v>0.513194444444444</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="11" t="n">
         <v>0.688888888888889</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="11" t="n">
         <v>0.757638888888889</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="11" t="n">
         <v>0.810416666666667</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>0.217361111111111</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>0.26875</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="11" t="n">
         <v>0.513194444444444</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="11" t="n">
         <v>0.688194444444444</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.756944444444444</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>0.217361111111111</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <v>0.269444444444444</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11" t="n">
         <v>0.513194444444444</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>0.688194444444444</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>0.75625</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>0.218055555555556</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.269444444444444</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11" t="n">
         <v>0.513194444444444</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="11" t="n">
         <v>0.6875</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>0.755555555555556</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="11" t="n">
         <v>0.218055555555556</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="11" t="n">
         <v>0.270138888888889</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="11" t="n">
         <v>0.686805555555556</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>0.754861111111111</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="11" t="n">
         <v>0.807638888888889</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="11" t="n">
         <v>0.218055555555556</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="11" t="n">
         <v>0.270138888888889</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="11" t="n">
         <v>0.686111111111111</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>0.754166666666667</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="11" t="n">
         <v>0.806944444444445</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="11" t="n">
         <v>0.21875</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="11" t="n">
         <v>0.270138888888889</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="11" t="n">
         <v>0.685416666666667</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="11" t="n">
         <v>0.753472222222222</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="11" t="n">
         <v>0.80625</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <v>0.21875</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="11" t="n">
         <v>0.270833333333333</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="11" t="n">
         <v>0.684722222222222</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="11" t="n">
         <v>0.752777777777778</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="11" t="n">
         <v>0.805555555555556</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>0.219444444444444</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <v>0.270833333333333</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="11" t="n">
         <v>0.684722222222222</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="11" t="n">
         <v>0.752083333333333</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="11" t="n">
         <v>0.804861111111111</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>0.219444444444444</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="11" t="n">
         <v>0.271527777777778</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="11" t="n">
         <v>0.684027777777778</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>0.751388888888889</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="11" t="n">
         <v>0.804861111111111</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.220138888888889</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <v>0.271527777777778</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="11" t="n">
         <v>0.683333333333333</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="11" t="n">
         <v>0.751388888888889</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="11" t="n">
         <v>0.804166666666667</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>0.220138888888889</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>0.272222222222222</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="11" t="n">
         <v>0.682638888888889</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="11" t="n">
         <v>0.750694444444444</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="11" t="n">
         <v>0.803472222222222</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>0.220138888888889</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="11" t="n">
         <v>0.272222222222222</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="11" t="n">
         <v>0.682638888888889</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="11" t="n">
         <v>0.75</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="11" t="n">
         <v>0.802777777777778</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.220833333333333</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="11" t="n">
         <v>0.272916666666667</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="11" t="n">
         <v>0.681944444444445</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="11" t="n">
         <v>0.749305555555556</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="11" t="n">
         <v>0.802083333333333</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="11" t="n">
         <v>0.220833333333333</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="11" t="n">
         <v>0.273611111111111</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="11" t="n">
         <v>0.68125</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="11" t="n">
         <v>0.748611111111111</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="11" t="n">
         <v>0.802083333333333</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="11" t="n">
         <v>0.221527777777778</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="11" t="n">
         <v>0.273611111111111</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="11" t="n">
         <v>0.680555555555556</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="11" t="n">
         <v>0.747916666666667</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="11" t="n">
         <v>0.801388888888889</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="11" t="n">
         <v>0.221527777777778</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="11" t="n">
         <v>0.274305555555556</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="11" t="n">
         <v>0.680555555555556</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="11" t="n">
         <v>0.747916666666667</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="11" t="n">
         <v>0.800694444444445</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="11" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="11" t="n">
         <v>0.274305555555556</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="11" t="n">
         <v>0.679861111111111</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="11" t="n">
         <v>0.747222222222222</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="11" t="n">
         <v>0.800694444444445</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="11" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="11" t="n">
         <v>0.275</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="11" t="n">
         <v>0.679166666666667</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="11" t="n">
         <v>0.746527777777778</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="11" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.222916666666667</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="11" t="n">
         <v>0.275</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="11" t="n">
         <v>0.679166666666667</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="11" t="n">
         <v>0.745833333333333</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="11" t="n">
         <v>0.799305555555556</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <v>0.222916666666667</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <v>0.275694444444444</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="11" t="n">
         <v>0.678472222222222</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="11" t="n">
         <v>0.745833333333333</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="11" t="n">
         <v>0.799305555555556</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="11" t="n">
         <v>0.223611111111111</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="11" t="n">
         <v>0.275694444444444</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="11" t="n">
         <v>0.677777777777778</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="11" t="n">
         <v>0.745138888888889</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="11" t="n">
         <v>0.798611111111111</v>
       </c>
     </row>
@@ -1657,699 +1777,699 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+    <row r="1" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>0.223611111111111</v>
       </c>
-      <c r="C1" s="9" t="n">
+      <c r="C1" s="11" t="n">
         <v>0.276388888888889</v>
       </c>
-      <c r="D1" s="9" t="n">
+      <c r="D1" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1" s="11" t="n">
         <v>0.677777777777778</v>
       </c>
-      <c r="F1" s="9" t="n">
+      <c r="F1" s="11" t="n">
         <v>0.744444444444445</v>
       </c>
-      <c r="G1" s="9" t="n">
+      <c r="G1" s="11" t="n">
         <v>0.798611111111111</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="11" t="n">
         <v>0.224305555555556</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>0.277083333333333</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>0.677083333333333</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="11" t="n">
         <v>0.744444444444445</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>0.797916666666667</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="11" t="n">
         <v>0.224305555555556</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>0.277083333333333</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>0.677083333333333</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>0.74375</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>0.797222222222222</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.225</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.277777777777778</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>0.676388888888889</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>0.743055555555556</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>0.797222222222222</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.225</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>0.278472222222222</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="11" t="n">
         <v>0.675694444444445</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>0.743055555555556</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="11" t="n">
         <v>0.796527777777778</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.225694444444444</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="11" t="n">
         <v>0.278472222222222</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.675694444444445</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>0.742361111111111</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="11" t="n">
         <v>0.796527777777778</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.225694444444444</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="11" t="n">
         <v>0.279166666666667</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.675</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>0.742361111111111</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="11" t="n">
         <v>0.796527777777778</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="11" t="n">
         <v>0.226388888888889</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="11" t="n">
         <v>0.279166666666667</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="11" t="n">
         <v>0.675</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="11" t="n">
         <v>0.741666666666667</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="11" t="n">
         <v>0.795833333333333</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>0.226388888888889</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="11" t="n">
         <v>0.279861111111111</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>0.674305555555556</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="11" t="n">
         <v>0.741666666666667</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="11" t="n">
         <v>0.795833333333333</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>0.227083333333333</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>0.280555555555556</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="11" t="n">
         <v>0.674305555555556</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="11" t="n">
         <v>0.740972222222222</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="11" t="n">
         <v>0.795138888888889</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>0.227083333333333</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>0.280555555555556</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="11" t="n">
         <v>0.673611111111111</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.740972222222222</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="11" t="n">
         <v>0.795138888888889</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>0.227777777777778</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <v>0.28125</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>0.673611111111111</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>0.740277777777778</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="11" t="n">
         <v>0.795138888888889</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>0.228472222222222</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.281944444444444</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11" t="n">
         <v>0.511111111111111</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="11" t="n">
         <v>0.673611111111111</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>0.740277777777778</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="11" t="n">
         <v>0.794444444444444</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="11" t="n">
         <v>0.228472222222222</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="11" t="n">
         <v>0.281944444444444</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="11" t="n">
         <v>0.672916666666667</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>0.739583333333333</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="11" t="n">
         <v>0.794444444444444</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="11" t="n">
         <v>0.229166666666667</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="11" t="n">
         <v>0.282638888888889</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="11" t="n">
         <v>0.672916666666667</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>0.739583333333333</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="11" t="n">
         <v>0.794444444444444</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="11" t="n">
         <v>0.229166666666667</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="11" t="n">
         <v>0.283333333333333</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="11" t="n">
         <v>0.672916666666667</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="11" t="n">
         <v>0.739583333333333</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="11" t="n">
         <v>0.794444444444444</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <v>0.229861111111111</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="11" t="n">
         <v>0.284027777777778</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="11" t="n">
         <v>0.672222222222222</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="11" t="n">
         <v>0.738888888888889</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="11" t="n">
         <v>0.79375</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>0.229861111111111</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <v>0.284027777777778</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="11" t="n">
         <v>0.672222222222222</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="11" t="n">
         <v>0.738888888888889</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="11" t="n">
         <v>0.79375</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>0.230555555555556</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="11" t="n">
         <v>0.284722222222222</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="11" t="n">
         <v>0.511805555555556</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="11" t="n">
         <v>0.672222222222222</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>0.738888888888889</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="11" t="n">
         <v>0.79375</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.23125</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <v>0.285416666666667</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="11" t="n">
         <v>0.671527777777778</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="11" t="n">
         <v>0.738194444444445</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="11" t="n">
         <v>0.79375</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>0.23125</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>0.285416666666667</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="11" t="n">
         <v>0.671527777777778</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="11" t="n">
         <v>0.738194444444445</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="11" t="n">
         <v>0.79375</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>0.231944444444444</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="11" t="n">
         <v>0.286111111111111</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="11" t="n">
         <v>0.671527777777778</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="11" t="n">
         <v>0.738194444444445</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="11" t="n">
         <v>0.79375</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.231944444444444</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="11" t="n">
         <v>0.286805555555556</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="11" t="n">
         <v>0.5125</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="11" t="n">
         <v>0.671527777777778</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="11" t="n">
         <v>0.738194444444445</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="11" t="n">
         <v>0.793055555555556</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="11" t="n">
         <v>0.232638888888889</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="11" t="n">
         <v>0.286805555555556</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="11" t="n">
         <v>0.513194444444444</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="11" t="n">
         <v>0.671527777777778</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="11" t="n">
         <v>0.738194444444445</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="11" t="n">
         <v>0.793055555555556</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="11" t="n">
         <v>0.233333333333333</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="11" t="n">
         <v>0.2875</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="11" t="n">
         <v>0.513194444444444</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="11" t="n">
         <v>0.671527777777778</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="11" t="n">
         <v>0.738194444444445</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="11" t="n">
         <v>0.793055555555556</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="11" t="n">
         <v>0.233333333333333</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="11" t="n">
         <v>0.288194444444444</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="11" t="n">
         <v>0.513194444444444</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="11" t="n">
         <v>0.670833333333333</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="11" t="n">
         <v>0.7375</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="11" t="n">
         <v>0.793055555555556</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="11" t="n">
         <v>0.234027777777778</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="11" t="n">
         <v>0.288888888888889</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="11" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="11" t="n">
         <v>0.670833333333333</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="11" t="n">
         <v>0.7375</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="11" t="n">
         <v>0.793055555555556</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="11" t="n">
         <v>0.234027777777778</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="11" t="n">
         <v>0.288888888888889</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="11" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="11" t="n">
         <v>0.670833333333333</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="11" t="n">
         <v>0.7375</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="11" t="n">
         <v>0.793055555555556</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.234722222222222</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="11" t="n">
         <v>0.289583333333333</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="11" t="n">
         <v>0.513888888888889</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="11" t="n">
         <v>0.670833333333333</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="11" t="n">
         <v>0.7375</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="11" t="n">
         <v>0.79375</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <v>0.235416666666667</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <v>0.290277777777778</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="11" t="n">
         <v>0.514583333333333</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="11" t="n">
         <v>0.670833333333333</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="11" t="n">
         <v>0.7375</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="11" t="n">
         <v>0.79375</v>
       </c>
     </row>
@@ -2371,19 +2491,19 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="26.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="32.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="16.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="33.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="4" width="10.08"/>
   </cols>
   <sheetData>
@@ -3118,19 +3238,19 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="27.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="26.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="5" width="10.08"/>
   </cols>
   <sheetData>
@@ -3139,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="n">
-        <v>0.247916666666667</v>
+        <v>0.247222222222222</v>
       </c>
       <c r="C1" s="7" t="n">
         <v>0.301388888888889</v>
@@ -3157,7 +3277,7 @@
         <v>0.815277777777778</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>2</v>
       </c>
@@ -3208,7 +3328,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="n">
-        <v>0.247222222222222</v>
+        <v>0.246527777777778</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>0.300694444444444</v>
@@ -3254,7 +3374,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>0.246527777777778</v>
+        <v>0.245833333333333</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>0.3</v>
@@ -3295,12 +3415,12 @@
         <v>0.818055555555556</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="n">
-        <v>0.245833333333333</v>
+        <v>0.245138888888889</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>0.299305555555556</v>
@@ -3318,12 +3438,12 @@
         <v>0.81875</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="n">
-        <v>0.245833333333333</v>
+        <v>1.24513888888889</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>0.298611111111111</v>
@@ -3341,12 +3461,12 @@
         <v>0.81875</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>0.245138888888889</v>
+        <v>0.244444444444444</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>0.298611111111111</v>
@@ -3364,12 +3484,12 @@
         <v>0.819444444444444</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.245138888888889</v>
+        <v>1.24444444444444</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>0.297916666666667</v>
@@ -3392,7 +3512,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="n">
-        <v>0.244444444444444</v>
+        <v>0.24375</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>0.297916666666667</v>
@@ -3438,7 +3558,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>0.24375</v>
+        <v>0.243055555555556</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>0.296527777777778</v>
@@ -3484,7 +3604,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="7" t="n">
-        <v>0.243055555555556</v>
+        <v>0.242361111111111</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>0.295833333333333</v>
@@ -3530,7 +3650,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>0.241666666666667</v>
+        <v>0.240972222222222</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>0.295138888888889</v>
@@ -3576,7 +3696,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="7" t="n">
-        <v>0.240972222222222</v>
+        <v>0.240277777777778</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>0.29375</v>
@@ -3617,12 +3737,12 @@
         <v>0.823611111111111</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.240277777777778</v>
+        <v>0.238888888888889</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>0.292361111111111</v>
@@ -3640,12 +3760,12 @@
         <v>0.823611111111111</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>23</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.239583333333333</v>
+        <v>1.23888888888889</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>0.292361111111111</v>
@@ -3668,7 +3788,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.238888888888889</v>
+        <v>0.238194444444444</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>0.291666666666667</v>
@@ -3691,7 +3811,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.238194444444444</v>
+        <v>0.2375</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>0.290972222222222</v>
@@ -3737,7 +3857,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.2375</v>
+        <v>0.236805555555556</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>0.289583333333333</v>
@@ -3760,7 +3880,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.236805555555556</v>
+        <v>0.236111111111111</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>0.288888888888889</v>
@@ -3783,7 +3903,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.236111111111111</v>
+        <v>0.235416666666667</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>0.288888888888889</v>
@@ -3819,13 +3939,13 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.73828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
         <v>1</v>
       </c>
@@ -3848,7 +3968,7 @@
         <v>0.826388888888889</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>2</v>
       </c>
@@ -3871,7 +3991,7 @@
         <v>0.827083333333333</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>3</v>
       </c>
@@ -3894,7 +4014,7 @@
         <v>0.827083333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>4</v>
       </c>
@@ -3917,7 +4037,7 @@
         <v>0.827777777777778</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>5</v>
       </c>
@@ -3940,7 +4060,7 @@
         <v>0.827777777777778</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>6</v>
       </c>
@@ -3963,7 +4083,7 @@
         <v>0.828472222222222</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>7</v>
       </c>
@@ -3986,7 +4106,7 @@
         <v>0.828472222222222</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>8</v>
       </c>
@@ -4009,7 +4129,7 @@
         <v>0.829166666666667</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>9</v>
       </c>
@@ -4032,7 +4152,7 @@
         <v>0.829166666666667</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>10</v>
       </c>
@@ -4055,7 +4175,7 @@
         <v>0.829861111111111</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>11</v>
       </c>
@@ -4078,7 +4198,7 @@
         <v>0.829861111111111</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>12</v>
       </c>
@@ -4101,7 +4221,7 @@
         <v>0.829861111111111</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>13</v>
       </c>
@@ -4124,7 +4244,7 @@
         <v>0.830555555555556</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>14</v>
       </c>
@@ -4147,7 +4267,7 @@
         <v>0.830555555555556</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>15</v>
       </c>
@@ -4170,7 +4290,7 @@
         <v>0.83125</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>16</v>
       </c>
@@ -4193,7 +4313,7 @@
         <v>0.83125</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>17</v>
       </c>
@@ -4216,7 +4336,7 @@
         <v>0.831944444444445</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>18</v>
       </c>
@@ -4239,7 +4359,7 @@
         <v>0.831944444444445</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>19</v>
       </c>
@@ -4262,7 +4382,7 @@
         <v>0.832638888888889</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>20</v>
       </c>
@@ -4285,7 +4405,7 @@
         <v>0.832638888888889</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>21</v>
       </c>
@@ -4308,7 +4428,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>22</v>
       </c>
@@ -4331,7 +4451,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>23</v>
       </c>
@@ -4354,7 +4474,7 @@
         <v>0.834027777777778</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>24</v>
       </c>
@@ -4377,7 +4497,7 @@
         <v>0.834027777777778</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>25</v>
       </c>
@@ -4400,7 +4520,7 @@
         <v>0.834722222222222</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>26</v>
       </c>
@@ -4423,7 +4543,7 @@
         <v>0.834722222222222</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>27</v>
       </c>
@@ -4446,7 +4566,7 @@
         <v>0.835416666666667</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>28</v>
       </c>
@@ -4469,7 +4589,7 @@
         <v>0.835416666666667</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>29</v>
       </c>
@@ -4492,7 +4612,7 @@
         <v>0.836111111111111</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>30</v>
       </c>
@@ -4515,7 +4635,7 @@
         <v>0.836111111111111</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>31</v>
       </c>
@@ -4556,13 +4676,13 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.73828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
         <v>1</v>
       </c>
@@ -4585,7 +4705,7 @@
         <v>0.836805555555556</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>2</v>
       </c>
@@ -4608,7 +4728,7 @@
         <v>0.8375</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>3</v>
       </c>
@@ -4631,7 +4751,7 @@
         <v>0.8375</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>4</v>
       </c>
@@ -4654,7 +4774,7 @@
         <v>0.838194444444445</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>5</v>
       </c>
@@ -4677,7 +4797,7 @@
         <v>0.838888888888889</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>6</v>
       </c>
@@ -4700,7 +4820,7 @@
         <v>0.838888888888889</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>7</v>
       </c>
@@ -4723,7 +4843,7 @@
         <v>0.839583333333333</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>8</v>
       </c>
@@ -4746,7 +4866,7 @@
         <v>0.839583333333333</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>9</v>
       </c>
@@ -4769,7 +4889,7 @@
         <v>0.840277777777778</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>10</v>
       </c>
@@ -4792,7 +4912,7 @@
         <v>0.840277777777778</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>11</v>
       </c>
@@ -4815,7 +4935,7 @@
         <v>0.840972222222222</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>12</v>
       </c>
@@ -4838,7 +4958,7 @@
         <v>0.840972222222222</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>13</v>
       </c>
@@ -4861,7 +4981,7 @@
         <v>0.841666666666667</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>14</v>
       </c>
@@ -4884,7 +5004,7 @@
         <v>0.842361111111111</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>15</v>
       </c>
@@ -4907,7 +5027,7 @@
         <v>0.842361111111111</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>16</v>
       </c>
@@ -4930,7 +5050,7 @@
         <v>0.843055555555556</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>17</v>
       </c>
@@ -4953,7 +5073,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>18</v>
       </c>
@@ -4976,7 +5096,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>19</v>
       </c>
@@ -4999,7 +5119,7 @@
         <v>0.844444444444444</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>20</v>
       </c>
@@ -5022,7 +5142,7 @@
         <v>0.844444444444444</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>21</v>
       </c>
@@ -5045,7 +5165,7 @@
         <v>0.845138888888889</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>22</v>
       </c>
@@ -5068,7 +5188,7 @@
         <v>0.845833333333333</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>23</v>
       </c>
@@ -5091,7 +5211,7 @@
         <v>0.845833333333333</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>24</v>
       </c>
@@ -5114,7 +5234,7 @@
         <v>0.846527777777778</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>25</v>
       </c>
@@ -5137,7 +5257,7 @@
         <v>0.847222222222222</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>26</v>
       </c>
@@ -5160,7 +5280,7 @@
         <v>0.847222222222222</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>27</v>
       </c>
@@ -5183,7 +5303,7 @@
         <v>0.847916666666667</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>28</v>
       </c>
@@ -5206,7 +5326,7 @@
         <v>0.848611111111111</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>29</v>
       </c>
@@ -5229,7 +5349,7 @@
         <v>0.848611111111111</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="19.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>30</v>
       </c>
@@ -5270,13 +5390,13 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.73828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="n">
         <v>1</v>
       </c>
@@ -5299,7 +5419,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>2</v>
       </c>
@@ -5322,7 +5442,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>3</v>
       </c>
@@ -5345,7 +5465,7 @@
         <v>0.850694444444444</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
         <v>4</v>
       </c>
@@ -5368,7 +5488,7 @@
         <v>0.851388888888889</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
         <v>5</v>
       </c>
@@ -5391,7 +5511,7 @@
         <v>0.852083333333333</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
         <v>6</v>
       </c>
@@ -5414,7 +5534,7 @@
         <v>0.852083333333333</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
         <v>7</v>
       </c>
@@ -5437,7 +5557,7 @@
         <v>0.852777777777778</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>8</v>
       </c>
@@ -5460,7 +5580,7 @@
         <v>0.853472222222222</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>9</v>
       </c>
@@ -5483,7 +5603,7 @@
         <v>0.853472222222222</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>10</v>
       </c>
@@ -5506,7 +5626,7 @@
         <v>0.854166666666667</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>11</v>
       </c>
@@ -5529,7 +5649,7 @@
         <v>0.854861111111111</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>12</v>
       </c>
@@ -5552,7 +5672,7 @@
         <v>0.855555555555556</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>13</v>
       </c>
@@ -5575,7 +5695,7 @@
         <v>0.855555555555556</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>14</v>
       </c>
@@ -5598,7 +5718,7 @@
         <v>0.85625</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="n">
         <v>15</v>
       </c>
@@ -5621,7 +5741,7 @@
         <v>0.856944444444444</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="n">
         <v>16</v>
       </c>
@@ -5644,7 +5764,7 @@
         <v>0.856944444444444</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="n">
         <v>17</v>
       </c>
@@ -5667,7 +5787,7 @@
         <v>0.857638888888889</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="n">
         <v>18</v>
       </c>
@@ -5690,7 +5810,7 @@
         <v>0.858333333333333</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
         <v>19</v>
       </c>
@@ -5713,7 +5833,7 @@
         <v>0.859027777777778</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="n">
         <v>20</v>
       </c>
@@ -5736,7 +5856,7 @@
         <v>0.859027777777778</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="n">
         <v>21</v>
       </c>
@@ -5759,7 +5879,7 @@
         <v>0.859722222222222</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="n">
         <v>22</v>
       </c>
@@ -5782,7 +5902,7 @@
         <v>0.860416666666667</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="n">
         <v>23</v>
       </c>
@@ -5805,7 +5925,7 @@
         <v>0.860416666666667</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="n">
         <v>24</v>
       </c>
@@ -5828,7 +5948,7 @@
         <v>0.861111111111111</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="n">
         <v>25</v>
       </c>
@@ -5851,7 +5971,7 @@
         <v>0.861805555555556</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="n">
         <v>26</v>
       </c>
@@ -5874,7 +5994,7 @@
         <v>0.861805555555556</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="n">
         <v>27</v>
       </c>
@@ -5897,7 +6017,7 @@
         <v>0.8625</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="n">
         <v>28</v>
       </c>
@@ -5920,7 +6040,7 @@
         <v>0.863194444444445</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="n">
         <v>29</v>
       </c>
@@ -5943,7 +6063,7 @@
         <v>0.863194444444445</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="n">
         <v>30</v>
       </c>
@@ -5966,7 +6086,7 @@
         <v>0.863888888888889</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="36.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="n">
         <v>31</v>
       </c>
@@ -6007,699 +6127,699 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.73828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+    <row r="1" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C1" s="9" t="n">
+      <c r="C1" s="11" t="n">
         <v>0.2375</v>
       </c>
-      <c r="D1" s="9" t="n">
+      <c r="D1" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1" s="11" t="n">
         <v>0.716666666666667</v>
       </c>
-      <c r="F1" s="9" t="n">
+      <c r="F1" s="11" t="n">
         <v>0.803472222222222</v>
       </c>
-      <c r="G1" s="9" t="n">
+      <c r="G1" s="11" t="n">
         <v>0.864583333333333</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="11" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>0.2375</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>0.716666666666667</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="11" t="n">
         <v>0.804166666666667</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>0.865277777777778</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>0.717361111111111</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>0.804166666666667</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>0.865277777777778</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>0.717361111111111</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>0.804861111111111</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>0.865972222222222</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="11" t="n">
         <v>0.521527777777778</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="11" t="n">
         <v>0.717361111111111</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>0.804861111111111</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="11" t="n">
         <v>0.865972222222222</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.521527777777778</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.717361111111111</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>0.805555555555556</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="11" t="n">
         <v>0.866666666666667</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11" t="n">
         <v>0.521527777777778</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.717361111111111</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>0.805555555555556</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="11" t="n">
         <v>0.866666666666667</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="11" t="n">
         <v>0.521527777777778</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="11" t="n">
         <v>0.718055555555556</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="11" t="n">
         <v>0.805555555555556</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="11" t="n">
         <v>0.867361111111111</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="11" t="n">
         <v>0.521527777777778</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>0.718055555555556</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="11" t="n">
         <v>0.80625</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="11" t="n">
         <v>0.867361111111111</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11" t="n">
         <v>0.522222222222222</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="11" t="n">
         <v>0.718055555555556</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="11" t="n">
         <v>0.80625</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="11" t="n">
         <v>0.868055555555556</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="11" t="n">
         <v>0.522222222222222</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="11" t="n">
         <v>0.718055555555556</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.806944444444445</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="11" t="n">
         <v>0.868055555555556</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11" t="n">
         <v>0.522222222222222</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>0.71875</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>0.806944444444445</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="11" t="n">
         <v>0.86875</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11" t="n">
         <v>0.522222222222222</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="11" t="n">
         <v>0.71875</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>0.806944444444445</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="11" t="n">
         <v>0.86875</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="11" t="n">
         <v>0.522222222222222</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="11" t="n">
         <v>0.71875</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>0.807638888888889</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="11" t="n">
         <v>0.869444444444445</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="11" t="n">
         <v>0.71875</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>0.807638888888889</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="11" t="n">
         <v>0.869444444444445</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="11" t="n">
         <v>0.236805555555556</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="11" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="11" t="n">
         <v>0.719444444444444</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="11" t="n">
         <v>0.807638888888889</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="11" t="n">
         <v>0.869444444444445</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <v>0.175694444444444</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="11" t="n">
         <v>0.2375</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="11" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="11" t="n">
         <v>0.719444444444444</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="11" t="n">
         <v>0.870138888888889</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <v>0.2375</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="11" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="11" t="n">
         <v>0.719444444444444</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="11" t="n">
         <v>0.870138888888889</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="11" t="n">
         <v>0.2375</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="11" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="11" t="n">
         <v>0.719444444444444</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="11" t="n">
         <v>0.870138888888889</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <v>0.2375</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="11" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="11" t="n">
         <v>0.719444444444444</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="11" t="n">
         <v>0.870138888888889</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>0.2375</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="11" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="11" t="n">
         <v>0.720138888888889</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>0.176388888888889</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="11" t="n">
         <v>0.2375</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="11" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="11" t="n">
         <v>0.720138888888889</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="11" t="n">
         <v>0.238194444444444</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="11" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="11" t="n">
         <v>0.720138888888889</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="11" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="11" t="n">
         <v>0.238194444444444</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="11" t="n">
         <v>0.720138888888889</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="11" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="11" t="n">
         <v>0.238194444444444</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="11" t="n">
         <v>0.177083333333333</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="11" t="n">
         <v>0.238194444444444</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="11" t="n">
         <v>0.177777777777778</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="11" t="n">
         <v>0.238888888888889</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="11" t="n">
         <v>0.871527777777778</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="11" t="n">
         <v>0.177777777777778</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="11" t="n">
         <v>0.238888888888889</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="11" t="n">
         <v>0.871527777777778</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.178472222222222</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="11" t="n">
         <v>0.238888888888889</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="11" t="n">
         <v>0.871527777777778</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <v>0.178472222222222</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <v>0.239583333333333</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="11" t="n">
         <v>0.871527777777778</v>
       </c>
     </row>
@@ -6721,722 +6841,722 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.73828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+    <row r="1" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>0.178472222222222</v>
       </c>
-      <c r="C1" s="9" t="n">
+      <c r="C1" s="11" t="n">
         <v>0.239583333333333</v>
       </c>
-      <c r="D1" s="9" t="n">
+      <c r="D1" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F1" s="9" t="n">
+      <c r="F1" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G1" s="9" t="n">
+      <c r="G1" s="11" t="n">
         <v>0.871527777777778</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="11" t="n">
         <v>0.179166666666667</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>0.239583333333333</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>0.871527777777778</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="11" t="n">
         <v>0.179166666666667</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>0.240277777777778</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.179861111111111</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.240277777777778</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.179861111111111</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>0.240277777777778</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.180555555555556</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="11" t="n">
         <v>0.240972222222222</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.180555555555556</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="11" t="n">
         <v>0.240972222222222</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="11" t="n">
         <v>0.18125</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="11" t="n">
         <v>0.241666666666667</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="11" t="n">
         <v>0.870833333333333</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>0.18125</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="11" t="n">
         <v>0.241666666666667</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="11" t="n">
         <v>0.809722222222222</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="11" t="n">
         <v>0.870138888888889</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>0.181944444444444</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>0.242361111111111</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="11" t="n">
         <v>0.870138888888889</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>0.181944444444444</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>0.242361111111111</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="11" t="n">
         <v>0.870138888888889</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>0.182638888888889</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <v>0.242361111111111</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="11" t="n">
         <v>0.870138888888889</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>0.183333333333333</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.243055555555556</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="11" t="n">
         <v>0.869444444444445</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="11" t="n">
         <v>0.183333333333333</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="11" t="n">
         <v>0.243055555555556</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>0.809027777777778</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="11" t="n">
         <v>0.869444444444445</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="11" t="n">
         <v>0.184027777777778</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="11" t="n">
         <v>0.24375</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="11" t="n">
         <v>0.86875</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="11" t="n">
         <v>0.184722222222222</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="11" t="n">
         <v>0.24375</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="11" t="n">
         <v>0.86875</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <v>0.184722222222222</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="11" t="n">
         <v>0.244444444444444</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="11" t="n">
         <v>0.86875</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>0.185416666666667</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <v>0.244444444444444</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="11" t="n">
         <v>0.808333333333333</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="11" t="n">
         <v>0.868055555555556</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>0.185416666666667</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="11" t="n">
         <v>0.245138888888889</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>0.807638888888889</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="11" t="n">
         <v>0.868055555555556</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.186111111111111</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <v>0.245138888888889</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="11" t="n">
         <v>0.807638888888889</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="11" t="n">
         <v>0.867361111111111</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>0.186805555555556</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>0.245138888888889</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="11" t="n">
         <v>0.807638888888889</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="11" t="n">
         <v>0.867361111111111</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>0.186805555555556</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="11" t="n">
         <v>0.245833333333333</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="11" t="n">
         <v>0.806944444444445</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="11" t="n">
         <v>0.866666666666667</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.1875</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="11" t="n">
         <v>0.245833333333333</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="11" t="n">
         <v>0.806944444444445</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="11" t="n">
         <v>0.865972222222222</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="11" t="n">
         <v>0.188194444444444</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="11" t="n">
         <v>0.246527777777778</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="11" t="n">
         <v>0.722222222222222</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="11" t="n">
         <v>0.80625</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="11" t="n">
         <v>0.865972222222222</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="11" t="n">
         <v>0.188194444444444</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="11" t="n">
         <v>0.246527777777778</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="11" t="n">
         <v>0.80625</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="11" t="n">
         <v>0.865277777777778</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="11" t="n">
         <v>0.188888888888889</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="11" t="n">
         <v>0.247222222222222</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="11" t="n">
         <v>0.80625</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="11" t="n">
         <v>0.864583333333333</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="11" t="n">
         <v>0.189583333333333</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="11" t="n">
         <v>0.247222222222222</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="11" t="n">
         <v>0.805555555555556</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="11" t="n">
         <v>0.864583333333333</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="11" t="n">
         <v>0.189583333333333</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="11" t="n">
         <v>0.247916666666667</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="11" t="n">
         <v>0.805555555555556</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="11" t="n">
         <v>0.863888888888889</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.190277777777778</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="11" t="n">
         <v>0.247916666666667</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="11" t="n">
         <v>0.804861111111111</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="11" t="n">
         <v>0.863194444444445</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <v>0.190972222222222</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <v>0.248611111111111</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="11" t="n">
         <v>0.721527777777778</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="11" t="n">
         <v>0.804166666666667</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="11" t="n">
         <v>0.863194444444445</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="11" t="n">
         <v>0.191666666666667</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="11" t="n">
         <v>0.248611111111111</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="11" t="n">
         <v>0.804166666666667</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="11" t="n">
         <v>0.8625</v>
       </c>
     </row>
@@ -7458,722 +7578,722 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH3" activeCellId="0" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+    <row r="1" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>0.191666666666667</v>
       </c>
-      <c r="C1" s="9" t="n">
+      <c r="C1" s="11" t="n">
         <v>0.249305555555556</v>
       </c>
-      <c r="D1" s="9" t="n">
+      <c r="D1" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F1" s="9" t="n">
+      <c r="F1" s="11" t="n">
         <v>0.803472222222222</v>
       </c>
-      <c r="G1" s="9" t="n">
+      <c r="G1" s="11" t="n">
         <v>0.861805555555556</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="11" t="n">
         <v>0.192361111111111</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>0.249305555555556</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="11" t="n">
         <v>0.803472222222222</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>0.861111111111111</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="11" t="n">
         <v>0.193055555555556</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>0.25</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>0.802777777777778</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>0.860416666666667</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.193055555555556</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.25</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>0.720833333333333</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>0.802083333333333</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>0.860416666666667</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.19375</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>0.250694444444444</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="11" t="n">
         <v>0.720138888888889</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>0.802083333333333</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="11" t="n">
         <v>0.859722222222222</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.194444444444444</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="11" t="n">
         <v>0.250694444444444</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.720138888888889</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>0.801388888888889</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="11" t="n">
         <v>0.859027777777778</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.194444444444444</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="11" t="n">
         <v>0.250694444444444</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.720138888888889</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>0.800694444444445</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="11" t="n">
         <v>0.858333333333333</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="11" t="n">
         <v>0.195138888888889</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="11" t="n">
         <v>0.251388888888889</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="11" t="n">
         <v>0.719444444444444</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="11" t="n">
         <v>0.800694444444445</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="11" t="n">
         <v>0.857638888888889</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>0.195833333333333</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="11" t="n">
         <v>0.251388888888889</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>0.719444444444444</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="11" t="n">
         <v>0.8</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="11" t="n">
         <v>0.856944444444444</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>0.195833333333333</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>0.252083333333333</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="11" t="n">
         <v>0.719444444444444</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="11" t="n">
         <v>0.799305555555556</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="11" t="n">
         <v>0.85625</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>0.196527777777778</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>0.252083333333333</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="11" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="11" t="n">
         <v>0.71875</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.799305555555556</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="11" t="n">
         <v>0.855555555555556</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>0.197222222222222</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <v>0.252777777777778</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>0.71875</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>0.798611111111111</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="11" t="n">
         <v>0.854861111111111</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>0.197222222222222</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.252777777777778</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="11" t="n">
         <v>0.718055555555556</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>0.797916666666667</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="11" t="n">
         <v>0.854166666666667</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="11" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="11" t="n">
         <v>0.253472222222222</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="11" t="n">
         <v>0.718055555555556</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>0.797222222222222</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="11" t="n">
         <v>0.853472222222222</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="11" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="11" t="n">
         <v>0.253472222222222</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="11" t="n">
         <v>0.718055555555556</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>0.796527777777778</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="11" t="n">
         <v>0.852777777777778</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="11" t="n">
         <v>0.198611111111111</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="11" t="n">
         <v>0.253472222222222</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="11" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="11" t="n">
         <v>0.717361111111111</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="11" t="n">
         <v>0.796527777777778</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="11" t="n">
         <v>0.852083333333333</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <v>0.199305555555556</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="11" t="n">
         <v>0.254166666666667</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="11" t="n">
         <v>0.717361111111111</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="11" t="n">
         <v>0.795833333333333</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="11" t="n">
         <v>0.851388888888889</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>0.199305555555556</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <v>0.254166666666667</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="11" t="n">
         <v>0.716666666666667</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="11" t="n">
         <v>0.795138888888889</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="11" t="n">
         <v>0.850694444444444</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>0.2</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="11" t="n">
         <v>0.254861111111111</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="11" t="n">
         <v>0.716666666666667</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>0.794444444444444</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="11" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.200694444444444</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <v>0.254861111111111</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="11" t="n">
         <v>0.715972222222222</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="11" t="n">
         <v>0.79375</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="11" t="n">
         <v>0.849305555555556</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>0.200694444444444</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>0.255555555555556</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="11" t="n">
         <v>0.525</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="11" t="n">
         <v>0.715972222222222</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="11" t="n">
         <v>0.793055555555556</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="11" t="n">
         <v>0.848611111111111</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>0.201388888888889</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="11" t="n">
         <v>0.255555555555556</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="11" t="n">
         <v>0.715277777777778</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="11" t="n">
         <v>0.792361111111111</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="11" t="n">
         <v>0.847916666666667</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.201388888888889</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="11" t="n">
         <v>0.255555555555556</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="11" t="n">
         <v>0.714583333333333</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="11" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="11" t="n">
         <v>0.847222222222222</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="11" t="n">
         <v>0.202083333333333</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="11" t="n">
         <v>0.25625</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="11" t="n">
         <v>0.714583333333333</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="11" t="n">
         <v>0.790972222222222</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="11" t="n">
         <v>0.846527777777778</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="11" t="n">
         <v>0.202083333333333</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="11" t="n">
         <v>0.25625</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="11" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="11" t="n">
         <v>0.713888888888889</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="11" t="n">
         <v>0.790972222222222</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="11" t="n">
         <v>0.845833333333333</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="11" t="n">
         <v>0.202777777777778</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="11" t="n">
         <v>0.256944444444444</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="11" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="11" t="n">
         <v>0.713888888888889</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="11" t="n">
         <v>0.790277777777778</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="11" t="n">
         <v>0.844444444444444</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="11" t="n">
         <v>0.203472222222222</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="11" t="n">
         <v>0.256944444444444</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="11" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="11" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="11" t="n">
         <v>0.789583333333333</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="11" t="n">
         <v>0.84375</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="11" t="n">
         <v>0.203472222222222</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="11" t="n">
         <v>0.256944444444444</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="11" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="11" t="n">
         <v>0.7125</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="11" t="n">
         <v>0.788888888888889</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="11" t="n">
         <v>0.843055555555556</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.204166666666667</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="11" t="n">
         <v>0.257638888888889</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="11" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="11" t="n">
         <v>0.7125</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="11" t="n">
         <v>0.788194444444444</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="11" t="n">
         <v>0.842361111111111</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <v>0.204166666666667</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <v>0.257638888888889</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="11" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="11" t="n">
         <v>0.711805555555556</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="11" t="n">
         <v>0.7875</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="11" t="n">
         <v>0.841666666666667</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+    <row r="31" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="11" t="n">
         <v>0.204861111111111</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="11" t="n">
         <v>0.257638888888889</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="11" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="11" t="n">
         <v>0.711805555555556</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="11" t="n">
         <v>0.786805555555556</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="11" t="n">
         <v>0.840972222222222</v>
       </c>
     </row>
@@ -8195,699 +8315,699 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="n">
+    <row r="1" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="11" t="n">
         <v>0.204861111111111</v>
       </c>
-      <c r="C1" s="9" t="n">
+      <c r="C1" s="11" t="n">
         <v>0.258333333333333</v>
       </c>
-      <c r="D1" s="9" t="n">
+      <c r="D1" s="11" t="n">
         <v>0.522222222222222</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1" s="11" t="n">
         <v>0.711111111111111</v>
       </c>
-      <c r="F1" s="9" t="n">
+      <c r="F1" s="11" t="n">
         <v>0.786111111111111</v>
       </c>
-      <c r="G1" s="9" t="n">
+      <c r="G1" s="11" t="n">
         <v>0.840277777777778</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+    <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="11" t="n">
         <v>0.205555555555556</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="11" t="n">
         <v>0.258333333333333</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.522222222222222</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="11" t="n">
         <v>0.710416666666667</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="11" t="n">
         <v>0.785416666666667</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>0.839583333333333</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+    <row r="3" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="11" t="n">
         <v>0.205555555555556</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="11" t="n">
         <v>0.259027777777778</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.522222222222222</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="11" t="n">
         <v>0.709722222222222</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="11" t="n">
         <v>0.784722222222222</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>0.838194444444445</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+    <row r="4" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.20625</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.259027777777778</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="11" t="n">
         <v>0.521527777777778</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>0.709722222222222</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="11" t="n">
         <v>0.784027777777778</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="11" t="n">
         <v>0.8375</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+    <row r="5" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="11" t="n">
         <v>0.20625</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>0.259027777777778</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="11" t="n">
         <v>0.521527777777778</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="11" t="n">
         <v>0.709027777777778</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="11" t="n">
         <v>0.783333333333333</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="11" t="n">
         <v>0.836805555555556</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+    <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="11" t="n">
         <v>0.206944444444444</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="11" t="n">
         <v>0.259722222222222</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="11" t="n">
         <v>0.521527777777778</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="11" t="n">
         <v>0.782638888888889</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="11" t="n">
         <v>0.836111111111111</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+    <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.206944444444444</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="11" t="n">
         <v>0.259722222222222</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="11" t="n">
         <v>0.781944444444444</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="11" t="n">
         <v>0.835416666666667</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+    <row r="8" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="11" t="n">
         <v>0.207638888888889</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="11" t="n">
         <v>0.259722222222222</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="11" t="n">
         <v>0.707638888888889</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="11" t="n">
         <v>0.780555555555556</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="11" t="n">
         <v>0.834722222222222</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+    <row r="9" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="11" t="n">
         <v>0.207638888888889</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="11" t="n">
         <v>0.260416666666667</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="11" t="n">
         <v>0.520833333333333</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>0.706944444444445</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="11" t="n">
         <v>0.779861111111111</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="11" t="n">
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+    <row r="10" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="11" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="11" t="n">
         <v>0.260416666666667</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11" t="n">
         <v>0.520138888888889</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="11" t="n">
         <v>0.70625</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="11" t="n">
         <v>0.779166666666667</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="11" t="n">
         <v>0.832638888888889</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="11" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="11" t="n">
         <v>0.261111111111111</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="11" t="n">
         <v>0.520138888888889</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="11" t="n">
         <v>0.70625</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="11" t="n">
         <v>0.778472222222222</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="11" t="n">
         <v>0.831944444444445</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="11" t="n">
         <v>0.209027777777778</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="11" t="n">
         <v>0.261111111111111</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11" t="n">
         <v>0.520138888888889</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>0.705555555555556</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="11" t="n">
         <v>0.777777777777778</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="11" t="n">
         <v>0.83125</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+    <row r="13" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="11" t="n">
         <v>0.209027777777778</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.261111111111111</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11" t="n">
         <v>0.519444444444445</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="11" t="n">
         <v>0.704861111111111</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="11" t="n">
         <v>0.777083333333333</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="11" t="n">
         <v>0.830555555555556</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+    <row r="14" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="11" t="n">
         <v>0.209027777777778</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="11" t="n">
         <v>0.261805555555556</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="11" t="n">
         <v>0.519444444444445</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="11" t="n">
         <v>0.704166666666667</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="11" t="n">
         <v>0.776388888888889</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="11" t="n">
         <v>0.829861111111111</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+    <row r="15" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="11" t="n">
         <v>0.209722222222222</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="11" t="n">
         <v>0.261805555555556</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11" t="n">
         <v>0.519444444444445</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="11" t="n">
         <v>0.703472222222222</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>0.775694444444445</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="11" t="n">
         <v>0.828472222222222</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+    <row r="16" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="11" t="n">
         <v>0.209722222222222</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="11" t="n">
         <v>0.261805555555556</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="11" t="n">
         <v>0.51875</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="11" t="n">
         <v>0.703472222222222</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="11" t="n">
         <v>0.775</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="11" t="n">
         <v>0.827777777777778</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+    <row r="17" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="11" t="n">
         <v>0.210416666666667</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="11" t="n">
         <v>0.2625</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="11" t="n">
         <v>0.51875</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="11" t="n">
         <v>0.702777777777778</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="11" t="n">
         <v>0.774305555555556</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="11" t="n">
         <v>0.827083333333333</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="11" t="n">
         <v>0.210416666666667</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="11" t="n">
         <v>0.2625</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="11" t="n">
         <v>0.51875</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="11" t="n">
         <v>0.702083333333333</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="11" t="n">
         <v>0.773611111111111</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="11" t="n">
         <v>0.826388888888889</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+    <row r="19" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="11" t="n">
         <v>0.211111111111111</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="11" t="n">
         <v>0.2625</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="11" t="n">
         <v>0.518055555555556</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="11" t="n">
         <v>0.701388888888889</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="11" t="n">
         <v>0.772916666666667</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="11" t="n">
         <v>0.825694444444444</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+    <row r="20" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="11" t="n">
         <v>0.211111111111111</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="11" t="n">
         <v>0.263194444444444</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="11" t="n">
         <v>0.518055555555556</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="11" t="n">
         <v>0.700694444444444</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="11" t="n">
         <v>0.772222222222222</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="11" t="n">
         <v>0.825</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+    <row r="21" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="11" t="n">
         <v>0.211805555555556</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>0.263194444444444</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="11" t="n">
         <v>0.518055555555556</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="11" t="n">
         <v>0.771527777777778</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="11" t="n">
         <v>0.824305555555556</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+    <row r="22" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="11" t="n">
         <v>0.211805555555556</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="11" t="n">
         <v>0.263888888888889</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="11" t="n">
         <v>0.517361111111111</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="11" t="n">
         <v>0.770138888888889</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="11" t="n">
         <v>0.822916666666667</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+    <row r="23" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="11" t="n">
         <v>0.211805555555556</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="11" t="n">
         <v>0.263888888888889</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="11" t="n">
         <v>0.517361111111111</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="11" t="n">
         <v>0.699305555555556</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="11" t="n">
         <v>0.769444444444445</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="11" t="n">
         <v>0.822222222222222</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+    <row r="24" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="11" t="n">
         <v>0.2125</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="11" t="n">
         <v>0.263888888888889</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="11" t="n">
         <v>0.516666666666667</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="11" t="n">
         <v>0.698611111111111</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="11" t="n">
         <v>0.76875</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="11" t="n">
         <v>0.821527777777778</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+    <row r="25" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="11" t="n">
         <v>0.2125</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="11" t="n">
         <v>0.264583333333333</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="11" t="n">
         <v>0.516666666666667</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="11" t="n">
         <v>0.697916666666667</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="11" t="n">
         <v>0.768055555555556</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="11" t="n">
         <v>0.820833333333333</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+    <row r="26" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="11" t="n">
         <v>0.213194444444444</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="11" t="n">
         <v>0.264583333333333</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="11" t="n">
         <v>0.516666666666667</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="11" t="n">
         <v>0.697222222222222</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="11" t="n">
         <v>0.767361111111111</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="11" t="n">
         <v>0.820138888888889</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+    <row r="27" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="11" t="n">
         <v>0.213194444444444</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="11" t="n">
         <v>0.264583333333333</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="11" t="n">
         <v>0.515972222222222</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="11" t="n">
         <v>0.696527777777778</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="11" t="n">
         <v>0.766666666666667</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="11" t="n">
         <v>0.819444444444444</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+    <row r="28" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="11" t="n">
         <v>0.213194444444444</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="11" t="n">
         <v>0.265277777777778</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="11" t="n">
         <v>0.515972222222222</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="11" t="n">
         <v>0.695833333333333</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="11" t="n">
         <v>0.765972222222222</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="11" t="n">
         <v>0.81875</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+    <row r="29" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="11" t="n">
         <v>0.213888888888889</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="11" t="n">
         <v>0.265277777777778</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="11" t="n">
         <v>0.515972222222222</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="11" t="n">
         <v>0.695833333333333</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="11" t="n">
         <v>0.765277777777778</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="11" t="n">
         <v>0.818055555555556</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+    <row r="30" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="11" t="n">
         <v>0.213888888888889</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="11" t="n">
         <v>0.265972222222222</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="11" t="n">
         <v>0.515277777777778</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="11" t="n">
         <v>0.695138888888889</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="11" t="n">
         <v>0.764583333333333</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="11" t="n">
         <v>0.817361111111111</v>
       </c>
     </row>
